--- a/OoPaEM/Labs/5/LW05_13_01_Shkabrov.xlsx
+++ b/OoPaEM/Labs/5/LW05_13_01_Shkabrov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\OoPaEM\Labs\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9561AF-1158-4C8C-82F0-A5D5078A4C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB2535F-E2C8-4D18-B5B4-0C50CC459AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -697,14 +697,15 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.81640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="12.7265625" style="2"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="12.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">

--- a/OoPaEM/Labs/5/LW05_13_01_Shkabrov.xlsx
+++ b/OoPaEM/Labs/5/LW05_13_01_Shkabrov.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4\4-1\OoPaEM\Labs\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB2535F-E2C8-4D18-B5B4-0C50CC459AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6B5C4-24CD-45E1-A2C9-8B6C7F522F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11120" yWindow="-160" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Наименование</t>
   </si>
@@ -208,6 +216,37 @@
     <t>Лабораторная работа № 5
 Себестоимость программного продукта
 Вариант 13</t>
+  </si>
+  <si>
+    <t>Статьи затрат</t>
+  </si>
+  <si>
+    <t>Затраты, руб.</t>
+  </si>
+  <si>
+    <t>Затраты на материальные ресурсы, всего</t>
+  </si>
+  <si>
+    <t>Затраты на оплату труда, всего:
+в том числе: основная заработная плата;</t>
+  </si>
+  <si>
+    <t>дополнительная заработная плата</t>
+  </si>
+  <si>
+    <t>Затраты на обязательные отчисления, всего</t>
+  </si>
+  <si>
+    <t>Амортизация основных фондов и нематериальных активов долгосрочного пользования</t>
+  </si>
+  <si>
+    <t>Прочие производственные затраты</t>
+  </si>
+  <si>
+    <t>Накладные расходы</t>
+  </si>
+  <si>
+    <t>Полная себестоимость</t>
   </si>
 </sst>
 </file>
@@ -399,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,6 +515,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -705,7 +752,11 @@
     <col min="1" max="1" width="58.81640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="2"/>
+    <col min="4" max="5" width="12.7265625" style="2"/>
+    <col min="6" max="6" width="14.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7265625" style="2"/>
+    <col min="9" max="9" width="38.26953125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="12.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -817,7 +868,7 @@
         <v>2.6999999999999997</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="8">
@@ -839,7 +890,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="8">
@@ -863,7 +914,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J11" s="6">
@@ -926,7 +977,7 @@
         <v>827.00421940928265</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
       <c r="J14" s="7">
@@ -953,7 +1004,7 @@
         <v>289.4514767932489</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="7">
@@ -975,7 +1026,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="7">
@@ -1002,7 +1053,7 @@
         <v>1116.4556962025315</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1024,7 +1075,7 @@
         <v>200.96202531645565</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="7">
@@ -1051,7 +1102,7 @@
         <v>1317.417721518987</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J19" s="8">
@@ -1078,7 +1129,7 @@
         <v>455.8265316455695</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J20" s="8">
@@ -1100,7 +1151,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="6">
@@ -1140,8 +1191,12 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="I23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1153,14 +1208,19 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="I24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="31">
+        <f>G9</f>
+        <v>2.6999999999999997</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -1176,8 +1236,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="31">
+        <f>G17</f>
+        <v>1116.4556962025315</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1204,8 +1269,13 @@
         <v>2519.2699513763309</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="I26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="31">
+        <f>G18</f>
+        <v>200.96202531645565</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -1232,14 +1302,19 @@
         <v>579.43208881655619</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="31">
+        <f>G20</f>
+        <v>455.8265316455695</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1260,8 +1335,13 @@
         <v>3098.7020401928871</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="31">
+        <f>J11</f>
+        <v>24.613220815752459</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -1278,8 +1358,13 @@
         <v>3718.4424482314644</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="I29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="31">
+        <f>J16</f>
+        <v>46.003616636528022</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -1288,6 +1373,13 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="7"/>
+      <c r="I30" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="37">
+        <f>M21</f>
+        <v>133.97468354430379</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -1296,6 +1388,13 @@
       <c r="B31" s="20">
         <v>13</v>
       </c>
+      <c r="I31" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="37">
+        <f>G26</f>
+        <v>2519.2699513763309</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1305,8 +1404,8 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="13" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
@@ -1314,7 +1413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>34</v>
       </c>
@@ -1322,15 +1421,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="27">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>37</v>
       </c>
@@ -1346,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>38</v>
       </c>
@@ -1355,7 +1455,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1365,5 +1465,6 @@
     <mergeCell ref="A1:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>